--- a/DMSNewVSale_2025-11-19_21-35.xlsx
+++ b/DMSNewVSale_2025-11-19_21-35.xlsx
@@ -362,351 +362,360 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>DIGESTIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>DIOSED-C 20 TABS.</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>FARCOVIT B12 30 CAPS.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>14.8500</t>
+  </si>
+  <si>
+    <t>FERROTRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>159.00</t>
+  </si>
+  <si>
+    <t>52.4700</t>
+  </si>
+  <si>
+    <t>FLAGYL 500MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>GAPTIN 400 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>51.4800</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>GYNERA 21 C.TABS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
+    <t>IMIPRAMINE 25MG 50 TAB.</t>
+  </si>
+  <si>
+    <t>52.50</t>
+  </si>
+  <si>
+    <t>10.5000</t>
+  </si>
+  <si>
+    <t>INFECTOCURE 250MG/5ML SUSP. 60 ML</t>
+  </si>
+  <si>
+    <t>IRUXOL TOPICAL OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>109.00</t>
+  </si>
+  <si>
+    <t>109.0000</t>
+  </si>
+  <si>
+    <t>ISIS نعناع</t>
+  </si>
+  <si>
+    <t>18.50</t>
+  </si>
+  <si>
+    <t>18.5000</t>
+  </si>
+  <si>
+    <t>KEFLEX 1GM 16 TABS.</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>L-CARNITINE 300MG/ML SYRUP 30ML</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>LIMITLESS WOMAN MAX 30 TABS.</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
+    <t>MEMEXA 10MG 30F.C. TAB.</t>
+  </si>
+  <si>
+    <t>237.00</t>
+  </si>
+  <si>
+    <t>78.2100</t>
+  </si>
+  <si>
+    <t>METHERGIN 0.125MG 30 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>4.9500</t>
+  </si>
+  <si>
+    <t>METIANORMIN 500MG 30TAB</t>
+  </si>
+  <si>
+    <t>70.50</t>
+  </si>
+  <si>
+    <t>70.5000</t>
+  </si>
+  <si>
+    <t>MILGA 40 TABLETS</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>MINIRIN MELT 120MCG 30 SUBLINGUAL TAB</t>
+  </si>
+  <si>
+    <t>840.00</t>
+  </si>
+  <si>
+    <t>277.2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOKELAR  CREAM</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>MOXEN 15 MG 20 TABS</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>MUCOSTA 100MG 20 TAB</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>228.0000</t>
+  </si>
+  <si>
+    <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>128.00</t>
+  </si>
+  <si>
+    <t>128.0000</t>
+  </si>
+  <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>OSTEOCARE LIQUID 120 ML</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 24 F.C. TAB</t>
+  </si>
+  <si>
+    <t>PANTOLOC 20MG 14 E.C. TAB.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>PROTOFIX 40MG 14 F.C. TAB</t>
+  </si>
+  <si>
+    <t>116.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>PULMICORT 0.25MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>1:19</t>
+  </si>
+  <si>
+    <t>564.00</t>
+  </si>
+  <si>
+    <t>28.2000</t>
+  </si>
+  <si>
+    <t>QUADRIDERM CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>RICHI PANTHENOL ADVANCE GEL</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>ROWATINEX 45 CAPSULES</t>
+  </si>
+  <si>
     <t>3:1</t>
   </si>
   <si>
     <t>23.7600</t>
   </si>
   <si>
-    <t>DIGESTIN 20 TABLETS</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>DIOSED-C 20 TABS.</t>
-  </si>
-  <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>FARCOVIT B12 30 CAPS.</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>14.8500</t>
-  </si>
-  <si>
-    <t>FERROTRON 30 CAPS</t>
-  </si>
-  <si>
-    <t>159.00</t>
-  </si>
-  <si>
-    <t>52.4700</t>
-  </si>
-  <si>
-    <t>FLAGYL 500MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>GAPTIN 400 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>156.00</t>
-  </si>
-  <si>
-    <t>51.4800</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>GYNERA 21 C.TABS</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>124.0000</t>
-  </si>
-  <si>
-    <t>IMIPRAMINE 25MG 50 TAB.</t>
-  </si>
-  <si>
-    <t>52.50</t>
-  </si>
-  <si>
-    <t>10.5000</t>
-  </si>
-  <si>
-    <t>INFECTOCURE 250MG/5ML SUSP. 60 ML</t>
-  </si>
-  <si>
-    <t>IRUXOL TOPICAL OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>109.00</t>
-  </si>
-  <si>
-    <t>109.0000</t>
-  </si>
-  <si>
-    <t>ISIS نعناع</t>
-  </si>
-  <si>
-    <t>18.50</t>
-  </si>
-  <si>
-    <t>18.5000</t>
-  </si>
-  <si>
-    <t>KEFLEX 1GM 16 TABS.</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>LAMIFEN 1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>L-CARNITINE 300MG/ML SYRUP 30ML</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>LIMITLESS WOMAN MAX 30 TABS.</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>240.0000</t>
-  </si>
-  <si>
-    <t>MEMEXA 10MG 30F.C. TAB.</t>
-  </si>
-  <si>
-    <t>237.00</t>
-  </si>
-  <si>
-    <t>78.2100</t>
-  </si>
-  <si>
-    <t>METHERGIN 0.125MG 30 SUGAR COATED TAB.</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>4.9500</t>
-  </si>
-  <si>
-    <t>METIANORMIN 500MG 30TAB</t>
-  </si>
-  <si>
-    <t>70.50</t>
-  </si>
-  <si>
-    <t>70.5000</t>
-  </si>
-  <si>
-    <t>MILGA 40 TABLETS</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>MINIRIN MELT 120MCG 30 SUBLINGUAL TAB</t>
-  </si>
-  <si>
-    <t>840.00</t>
-  </si>
-  <si>
-    <t>277.2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOKELAR  CREAM</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>MOXEN 15 MG 20 TABS</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>MUCOSTA 100MG 20 TAB</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>228.0000</t>
-  </si>
-  <si>
-    <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>128.00</t>
-  </si>
-  <si>
-    <t>128.0000</t>
-  </si>
-  <si>
-    <t>ORS 10 SACHET</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t>OSTEOCARE LIQUID 120 ML</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 24 F.C. TAB</t>
-  </si>
-  <si>
-    <t>PANTOLOC 20MG 14 E.C. TAB.</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>PROTOFIX 40MG 14 F.C. TAB</t>
-  </si>
-  <si>
-    <t>116.00</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>PULMICORT 0.25MG/ML 20 NEBULIZER VIAL SUSP.</t>
-  </si>
-  <si>
-    <t>1:19</t>
-  </si>
-  <si>
-    <t>564.00</t>
-  </si>
-  <si>
-    <t>28.2000</t>
-  </si>
-  <si>
-    <t>QUADRIDERM CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>RICHI PANTHENOL ADVANCE GEL</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>ROWATINEX 45 CAPSULES</t>
-  </si>
-  <si>
     <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
   </si>
   <si>
@@ -860,10 +869,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>65:0</t>
+    <t>132.0000</t>
+  </si>
+  <si>
+    <t>66:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -2650,7 +2659,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>39</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2659,7 +2668,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2676,11 +2685,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>17</v>
@@ -2692,7 +2701,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2709,11 +2718,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>15</v>
@@ -2725,7 +2734,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2742,11 +2751,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>15</v>
@@ -2758,7 +2767,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2775,11 +2784,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>17</v>
@@ -2791,14 +2800,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2808,11 +2817,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>15</v>
@@ -2824,14 +2833,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2841,11 +2850,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>15</v>
@@ -2857,14 +2866,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2874,11 +2883,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>15</v>
@@ -2890,14 +2899,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2907,11 +2916,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>15</v>
@@ -2923,14 +2932,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3161,7 +3170,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3175,10 +3184,10 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>39</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3187,14 +3196,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3204,11 +3213,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>17</v>
@@ -3220,7 +3229,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3237,11 +3246,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>17</v>
@@ -3253,7 +3262,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3270,11 +3279,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>17</v>
@@ -3286,7 +3295,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3303,11 +3312,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>15</v>
@@ -3319,7 +3328,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3336,11 +3345,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>15</v>
@@ -3352,7 +3361,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3369,11 +3378,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>17</v>
@@ -3385,14 +3394,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3402,7 +3411,7 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3418,7 +3427,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3435,11 +3444,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>15</v>
@@ -3451,7 +3460,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3468,11 +3477,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>17</v>
@@ -3484,7 +3493,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3505,7 +3514,7 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>15</v>
@@ -3517,7 +3526,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3534,11 +3543,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>17</v>
@@ -3550,7 +3559,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3567,11 +3576,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>35</v>
@@ -3583,14 +3592,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3600,11 +3609,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>17</v>
@@ -3616,14 +3625,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3637,7 +3646,7 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>39</v>
@@ -3649,7 +3658,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3666,11 +3675,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>17</v>
@@ -3682,14 +3691,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3699,11 +3708,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>15</v>
@@ -3715,7 +3724,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3748,7 +3757,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3765,11 +3774,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>17</v>
@@ -3781,7 +3790,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3798,11 +3807,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>15</v>
@@ -3814,14 +3823,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3831,11 +3840,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>15</v>
@@ -3847,7 +3856,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3864,11 +3873,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>35</v>
@@ -3880,7 +3889,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3897,11 +3906,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>17</v>
@@ -3913,14 +3922,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>117</v>
+        <v>233</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3930,11 +3939,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>118</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>15</v>
@@ -3946,14 +3955,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3963,11 +3972,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>15</v>
@@ -3979,7 +3988,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3996,11 +4005,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>17</v>
@@ -4012,7 +4021,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4029,11 +4038,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>35</v>
@@ -4045,14 +4054,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4066,7 +4075,7 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>15</v>
@@ -4078,7 +4087,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4095,11 +4104,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>17</v>
@@ -4111,14 +4120,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4128,11 +4137,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>17</v>
@@ -4144,7 +4153,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4177,7 +4186,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4198,7 +4207,7 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>15</v>
@@ -4210,7 +4219,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4227,11 +4236,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>17</v>
@@ -4243,14 +4252,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4260,11 +4269,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>35</v>
@@ -4276,7 +4285,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4293,11 +4302,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>17</v>
@@ -4309,14 +4318,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4326,7 +4335,7 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
@@ -4342,14 +4351,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4359,11 +4368,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>81</v>
@@ -4375,14 +4384,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4392,11 +4401,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>17</v>
@@ -4408,14 +4417,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4425,11 +4434,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>17</v>
@@ -4441,14 +4450,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4458,11 +4467,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>17</v>
@@ -4474,14 +4483,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4491,11 +4500,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>17</v>
@@ -4507,14 +4516,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4524,11 +4533,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>17</v>
@@ -4540,7 +4549,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4557,14 +4566,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4573,7 +4582,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4590,14 +4599,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>14</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>254</v>
+        <v>140</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4606,14 +4615,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4623,11 +4632,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>17</v>
@@ -4639,14 +4648,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4656,11 +4665,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>17</v>
@@ -4672,14 +4681,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4689,7 +4698,7 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
@@ -4705,7 +4714,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4722,11 +4731,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>17</v>
@@ -4738,7 +4747,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4755,11 +4764,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>17</v>
@@ -4771,7 +4780,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4792,7 +4801,7 @@
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>17</v>
@@ -4804,7 +4813,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4821,11 +4830,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>17</v>
@@ -4837,14 +4846,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4858,7 +4867,7 @@
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>35</v>
@@ -4870,14 +4879,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4899,7 +4908,7 @@
     </row>
     <row r="108" ht="25.5" customHeight="1">
       <c r="N108" s="13">
-        <v>6665.2950000000001</v>
+        <v>6694.1750000000002</v>
       </c>
       <c r="O108" s="13"/>
       <c r="P108" s="13"/>
@@ -4907,7 +4916,7 @@
     </row>
     <row r="109" ht="16.5" customHeight="1">
       <c t="s" r="A109" s="14">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
@@ -4915,13 +4924,13 @@
       <c r="E109" s="14"/>
       <c r="F109" s="14"/>
       <c t="s" r="G109" s="15">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="H109" s="15"/>
       <c r="I109" s="15"/>
       <c r="J109" s="16"/>
       <c t="s" r="K109" s="17">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="L109" s="17"/>
       <c r="M109" s="17"/>
